--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCDF/20/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCDF/20/seed4/result_data_RandomForest.xlsx
@@ -465,7 +465,7 @@
         <v>-21.2</v>
       </c>
       <c r="B2" t="n">
-        <v>5.3038</v>
+        <v>5.4139</v>
       </c>
       <c r="C2" t="n">
         <v>-10.8</v>
@@ -482,7 +482,7 @@
         <v>-21.67</v>
       </c>
       <c r="B3" t="n">
-        <v>5.801599999999992</v>
+        <v>5.668499999999989</v>
       </c>
       <c r="C3" t="n">
         <v>-9.76</v>
@@ -505,7 +505,7 @@
         <v>-11.3</v>
       </c>
       <c r="D4" t="n">
-        <v>-6.826899999999994</v>
+        <v>-6.577799999999996</v>
       </c>
       <c r="E4" t="n">
         <v>10.77</v>
@@ -516,7 +516,7 @@
         <v>-23.4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.098800000000002</v>
+        <v>4.720400000000003</v>
       </c>
       <c r="C5" t="n">
         <v>-15.14</v>
@@ -539,7 +539,7 @@
         <v>-12.89</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.734699999999993</v>
+        <v>-8.721299999999992</v>
       </c>
       <c r="E6" t="n">
         <v>14.65</v>
@@ -553,7 +553,7 @@
         <v>6.56</v>
       </c>
       <c r="C7" t="n">
-        <v>-12.8226</v>
+        <v>-12.74110000000001</v>
       </c>
       <c r="D7" t="n">
         <v>-9.31</v>
@@ -581,13 +581,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-20.32449999999999</v>
+        <v>-20.53629999999998</v>
       </c>
       <c r="B9" t="n">
         <v>10.18</v>
       </c>
       <c r="C9" t="n">
-        <v>-12.52170000000002</v>
+        <v>-12.5162</v>
       </c>
       <c r="D9" t="n">
         <v>-9.9</v>
@@ -607,7 +607,7 @@
         <v>-10.58</v>
       </c>
       <c r="D10" t="n">
-        <v>-6.375099999999998</v>
+        <v>-6.389699999999996</v>
       </c>
       <c r="E10" t="n">
         <v>16.23</v>
@@ -618,13 +618,13 @@
         <v>-22.23</v>
       </c>
       <c r="B11" t="n">
-        <v>5.370899999999997</v>
+        <v>5.387799999999996</v>
       </c>
       <c r="C11" t="n">
         <v>-13.87</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.439100000000002</v>
+        <v>-8.314600000000002</v>
       </c>
       <c r="E11" t="n">
         <v>13.91</v>
@@ -635,7 +635,7 @@
         <v>-24</v>
       </c>
       <c r="B12" t="n">
-        <v>5.058400000000003</v>
+        <v>5.130500000000001</v>
       </c>
       <c r="C12" t="n">
         <v>-15.79</v>
@@ -644,12 +644,12 @@
         <v>-10.06</v>
       </c>
       <c r="E12" t="n">
-        <v>11.8952</v>
+        <v>11.8583</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-22.02910000000002</v>
+        <v>-21.79780000000002</v>
       </c>
       <c r="B13" t="n">
         <v>4.42</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-19.9708</v>
+        <v>-19.90519999999999</v>
       </c>
       <c r="B16" t="n">
         <v>8.949999999999999</v>
@@ -729,12 +729,12 @@
         <v>-6.63</v>
       </c>
       <c r="E17" t="n">
-        <v>13.0089</v>
+        <v>13.3956</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.42860000000001</v>
+        <v>-22.47210000000001</v>
       </c>
       <c r="B18" t="n">
         <v>5.81</v>
@@ -763,12 +763,12 @@
         <v>-8.470000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>13.6518</v>
+        <v>13.3755</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-21.8777</v>
+        <v>-21.94880000000002</v>
       </c>
       <c r="B20" t="n">
         <v>5.51</v>
@@ -788,13 +788,13 @@
         <v>-21.82</v>
       </c>
       <c r="B21" t="n">
-        <v>5.451499999999995</v>
+        <v>5.579399999999993</v>
       </c>
       <c r="C21" t="n">
-        <v>-13.88380000000001</v>
+        <v>-11.54579999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.368699999999995</v>
+        <v>-7.036999999999997</v>
       </c>
       <c r="E21" t="n">
         <v>13.76</v>
@@ -848,7 +848,7 @@
         <v>-9.24</v>
       </c>
       <c r="E24" t="n">
-        <v>13.22629999999999</v>
+        <v>13.36669999999998</v>
       </c>
     </row>
     <row r="25">
@@ -862,7 +862,7 @@
         <v>-14.32</v>
       </c>
       <c r="D25" t="n">
-        <v>-8.255299999999997</v>
+        <v>-8.368799999999997</v>
       </c>
       <c r="E25" t="n">
         <v>15.03</v>
